--- a/ListagemDeUsuariosDoBlog.xlsx
+++ b/ListagemDeUsuariosDoBlog.xlsx
@@ -25,16 +25,16 @@
     <t>Primeiro USER</t>
   </si>
   <si>
-    <t>atendimento@sumig.com</t>
+    <t>gabriel.bastiani@sumig.com</t>
   </si>
   <si>
     <t>USER</t>
   </si>
   <si>
-    <t>Primeiro ADMIN</t>
+    <t>Gabriel Campos de Bastiani</t>
   </si>
   <si>
-    <t>gabriel.bastiani@sumig.com</t>
+    <t>gabriel.bastiani@hotmail.com.br</t>
   </si>
   <si>
     <t>ADMIN</t>
